--- a/data/Datos_template.xlsx
+++ b/data/Datos_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Nodo"/>
@@ -725,7 +725,7 @@
   </sheetPr>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -868,13 +868,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9" t="s">
@@ -1705,7 +1705,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
